--- a/src/main/resources/static/excel/MANGO吊牌信息导入.xlsx
+++ b/src/main/resources/static/excel/MANGO吊牌信息导入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangqiang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-code\sjs_yfg_pdm\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C89A146-1CC1-4C6F-B350-C3B292F5B5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9AB334-8511-41DA-9ABB-BC33311FD5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>*大货款号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*质量等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,10 @@
   </si>
   <si>
     <t>FZ/T 24011-2019</t>
+  </si>
+  <si>
+    <t>*合作方条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -445,9 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -463,66 +461,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/excel/MANGO吊牌信息导入.xlsx
+++ b/src/main/resources/static/excel/MANGO吊牌信息导入.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-code\sjs_yfg_pdm\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9AB334-8511-41DA-9ABB-BC33311FD5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C131C1C5-273F-4699-9757-7496778DF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>*质量等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>*合作方条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际号型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际尺码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,9 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -459,7 +469,7 @@
     <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -490,8 +500,14 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>

--- a/src/main/resources/static/excel/MANGO吊牌信息导入.xlsx
+++ b/src/main/resources/static/excel/MANGO吊牌信息导入.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-code\sjs_yfg_pdm\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C131C1C5-273F-4699-9757-7496778DF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67AB72-EBD5-470E-9024-23EE787A799C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>*质量等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>国际尺码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -469,7 +473,7 @@
     <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -506,8 +510,11 @@
       <c r="L1" t="s">
         <v>21</v>
       </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
